--- a/myapp/files/9_MethodComparePercent/Scenario 328.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 328.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5110</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.860433045343643</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.350877192982456</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>108</v>
+        <v>7098</v>
       </c>
       <c r="F3" t="n">
-        <v>0.191809043441196</v>
+        <v>1.19517686024446</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>2.85714285714286</v>
+        <v>1.40350877192982</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1404</v>
+        <v>12679</v>
       </c>
       <c r="F4" t="n">
-        <v>2.49351756473555</v>
+        <v>2.13491792209629</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.85714285714286</v>
+        <v>1.75438596491228</v>
       </c>
       <c r="K4" t="n">
         <v>2</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>2240</v>
+        <v>10865</v>
       </c>
       <c r="F5" t="n">
-        <v>3.97826164174333</v>
+        <v>1.82947261010933</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -707,10 +707,10 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.85714285714286</v>
+        <v>2.10526315789474</v>
       </c>
       <c r="K5" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>2418</v>
+        <v>6601</v>
       </c>
       <c r="F6" t="n">
-        <v>4.29439136148901</v>
+        <v>1.11149090651925</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -745,10 +745,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>5.71428571428571</v>
+        <v>2.45614035087719</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>7151</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.20410111687914</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.05263157894737</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>478</v>
+        <v>20826</v>
       </c>
       <c r="F8" t="n">
-        <v>0.848932618193443</v>
+        <v>3.50672771082714</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -821,10 +821,10 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J8" t="n">
-        <v>5.71428571428571</v>
+        <v>4.56140350877193</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>12599</v>
+        <v>51797</v>
       </c>
       <c r="F9" t="n">
-        <v>22.3759457251447</v>
+        <v>8.7216928472925</v>
       </c>
       <c r="G9" t="n">
         <v>4</v>
@@ -859,10 +859,10 @@
         <v>6.34920634920635</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J9" t="n">
-        <v>14.2857142857143</v>
+        <v>9.47368421052632</v>
       </c>
       <c r="K9" t="n">
         <v>8</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>8514</v>
+        <v>46083</v>
       </c>
       <c r="F10" t="n">
-        <v>15.1209462579476</v>
+        <v>7.75955695275364</v>
       </c>
       <c r="G10" t="n">
         <v>7</v>
@@ -897,10 +897,10 @@
         <v>11.1111111111111</v>
       </c>
       <c r="I10" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J10" t="n">
-        <v>8.57142857142857</v>
+        <v>8.42105263157895</v>
       </c>
       <c r="K10" t="n">
         <v>6</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>14273</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2.4033191499393</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4.56140350877193</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>9256</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1.55854564925651</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1.40350877192982</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>1675</v>
+        <v>29954</v>
       </c>
       <c r="F13" t="n">
-        <v>2.97481618300004</v>
+        <v>5.0437204383999</v>
       </c>
       <c r="G13" t="n">
         <v>4</v>
@@ -1011,10 +1011,10 @@
         <v>6.34920634920635</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J13" t="n">
-        <v>5.71428571428571</v>
+        <v>4.56140350877193</v>
       </c>
       <c r="K13" t="n">
         <v>3</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>3040</v>
+        <v>70382</v>
       </c>
       <c r="F14" t="n">
-        <v>5.39906937093738</v>
+        <v>11.8510760464533</v>
       </c>
       <c r="G14" t="n">
         <v>7</v>
@@ -1049,10 +1049,10 @@
         <v>11.1111111111111</v>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="J14" t="n">
-        <v>5.71428571428571</v>
+        <v>8.42105263157895</v>
       </c>
       <c r="K14" t="n">
         <v>8</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>3994</v>
+        <v>83725</v>
       </c>
       <c r="F15" t="n">
-        <v>7.09338258800128</v>
+        <v>14.097799749784</v>
       </c>
       <c r="G15" t="n">
         <v>11</v>
@@ -1087,10 +1087,10 @@
         <v>17.4603174603175</v>
       </c>
       <c r="I15" t="n">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="J15" t="n">
-        <v>8.57142857142857</v>
+        <v>10.8771929824561</v>
       </c>
       <c r="K15" t="n">
         <v>13</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>6259</v>
+        <v>39726</v>
       </c>
       <c r="F16" t="n">
-        <v>11.1160444712819</v>
+        <v>6.68915130319404</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -1125,10 +1125,10 @@
         <v>3.17460317460317</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J16" t="n">
-        <v>5.71428571428571</v>
+        <v>7.36842105263158</v>
       </c>
       <c r="K16" t="n">
         <v>6</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9411</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.58464489035793</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1163,10 +1163,10 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>1.40350877192982</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>16196</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>2.72711812179758</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.45614035087719</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>24426</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4.11290363318274</v>
       </c>
       <c r="G19" t="n">
         <v>12</v>
@@ -1239,10 +1239,10 @@
         <v>19.047619047619</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.21052631578947</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>195</v>
+        <v>35653</v>
       </c>
       <c r="F20" t="n">
-        <v>0.346321883991049</v>
+        <v>6.00333059992894</v>
       </c>
       <c r="G20" t="n">
         <v>8</v>
@@ -1277,10 +1277,10 @@
         <v>12.6984126984127</v>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="J20" t="n">
-        <v>2.85714285714286</v>
+        <v>8.07017543859649</v>
       </c>
       <c r="K20" t="n">
         <v>1</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>270</v>
+        <v>21154</v>
       </c>
       <c r="F21" t="n">
-        <v>0.479522608602991</v>
+        <v>3.56195707264177</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="J21" t="n">
-        <v>2.85714285714286</v>
+        <v>6.31578947368421</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1775</v>
+        <v>5492</v>
       </c>
       <c r="F22" t="n">
-        <v>3.15241714914929</v>
+        <v>0.924755045993598</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.85714285714286</v>
+        <v>0.701754385964912</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>2025</v>
+        <v>7192</v>
       </c>
       <c r="F23" t="n">
-        <v>3.59641956452243</v>
+        <v>1.21100478710596</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>2.85714285714286</v>
+        <v>1.05263157894737</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2025</v>
+        <v>12312</v>
       </c>
       <c r="F24" t="n">
-        <v>3.59641956452243</v>
+        <v>2.07312165445615</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1429,10 +1429,10 @@
         <v>3.17460317460317</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>2.85714285714286</v>
+        <v>1.05263157894737</v>
       </c>
       <c r="K24" t="n">
         <v>3</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>3539</v>
+        <v>19367</v>
       </c>
       <c r="F25" t="n">
-        <v>6.28529819202216</v>
+        <v>3.26105808007247</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,10 +1467,10 @@
         <v>3.17460317460317</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>8.57142857142857</v>
+        <v>2.80701754385965</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>3748</v>
+        <v>27158</v>
       </c>
       <c r="F26" t="n">
-        <v>6.65648421127411</v>
+        <v>4.57292380537038</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -1505,10 +1505,10 @@
         <v>1.58730158730159</v>
       </c>
       <c r="I26" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="J26" t="n">
-        <v>8.57142857142857</v>
+        <v>3.15789473684211</v>
       </c>
       <c r="K26" t="n">
         <v>5</v>
